--- a/data/trans_bre/P1423-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P1423-Provincia-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>3.405209845573529</v>
+        <v>3.385447847817751</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>3.040670590108459</v>
+        <v>2.941114232544838</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4.391897951601282</v>
+        <v>4.518785680578898</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.281934281019345</v>
+        <v>1.35296764916447</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.7305940000658599</v>
+        <v>0.770413182798556</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4002332333224644</v>
+        <v>0.3501560977804155</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5425243730019671</v>
+        <v>0.5578417367711853</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.3901156122516378</v>
+        <v>0.4020698342856175</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>11.59567003673129</v>
+        <v>12.25698570750637</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>12.29084936538574</v>
+        <v>12.32932552599275</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>14.17762955884824</v>
+        <v>14.50625750372109</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5.557737343948631</v>
+        <v>5.645175178316872</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>8.355910430370757</v>
+        <v>8.513857974348769</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>3.705459943166885</v>
+        <v>3.790857112923866</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>4.497005158372268</v>
+        <v>4.55825153694567</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>6.872967723264069</v>
+        <v>7.572165983240417</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>4.1705562673771</v>
+        <v>3.971257427815428</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>5.175481381813319</v>
+        <v>4.912767924375609</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3.541039487931426</v>
+        <v>3.636897845841875</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4.593356396548645</v>
+        <v>4.28196079430186</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>1.058309122488651</v>
+        <v>1.096814333498443</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.878812390947033</v>
+        <v>0.783637744871765</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7239175507261026</v>
+        <v>0.7773389781984112</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.5615888457084264</v>
+        <v>0.5548520654214026</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>9.726932066036415</v>
+        <v>9.922267217110123</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>12.79244603336671</v>
+        <v>12.14439355893041</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>9.532158324184117</v>
+        <v>9.735923425020347</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>11.06607241600804</v>
+        <v>11.17495773821491</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>6.513345969710976</v>
+        <v>6.905890607372332</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>5.606631656744269</v>
+        <v>5.285490219008064</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>4.75947908465792</v>
+        <v>4.605133760642986</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>2.805310349838921</v>
+        <v>2.813113222700498</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>6.553747270823082</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5.994916368455821</v>
+        <v>5.994916368455823</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>4.702251926600504</v>
@@ -849,7 +849,7 @@
         <v>5.02862221702493</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.6527667016597447</v>
+        <v>0.6527667016597448</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.719544160578693</v>
+        <v>2.759480311967659</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.970846869841881</v>
+        <v>2.346752065971081</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3.463298979080767</v>
+        <v>3.607295110660097</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.283208664608835</v>
+        <v>1.521900085343727</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.3846927870026575</v>
+        <v>0.4077951664569972</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2498167559623541</v>
+        <v>0.2199000689257492</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>1.304538978550947</v>
+        <v>1.088401262514992</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.1156772126166479</v>
+        <v>0.1129713292230338</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>8.551003582601387</v>
+        <v>8.784278407825655</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>10.61157365694007</v>
+        <v>10.87423611445415</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>10.07017088298205</v>
+        <v>10.04510393313367</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>10.03358556638964</v>
+        <v>10.04148358053243</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>22.20079107729656</v>
+        <v>22.59879449204406</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>2.894923154506675</v>
+        <v>3.207439762449273</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>24.59332224574832</v>
+        <v>22.70013290894689</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.424668231558009</v>
+        <v>1.44408361375377</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>3.775832160442598</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>2.681287465914397</v>
+        <v>2.681287465914399</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>1.113302748959418</v>
@@ -949,7 +949,7 @@
         <v>1.304191159603745</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.3756717214850283</v>
+        <v>0.3756717214850285</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.08946827565679412</v>
+        <v>-0.2882358979546099</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>7.144743173838468</v>
+        <v>7.433290192886219</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.6578988506794059</v>
+        <v>0.3829159363334438</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-1.520948100108382</v>
+        <v>-1.147880260945553</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1385833843386108</v>
+        <v>-0.2269366322893342</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>1.274090784255558</v>
+        <v>1.580883420365506</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0125796250235022</v>
+        <v>0.0150397544735358</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1646786518238746</v>
+        <v>-0.1440167771113282</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4.9132748418695</v>
+        <v>4.878462923093727</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>14.84608059073284</v>
+        <v>14.85665784753507</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>7.028559742646149</v>
+        <v>6.788145891958151</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>6.519248337513657</v>
+        <v>6.181005014975957</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>4.60479204175839</v>
+        <v>4.338935560055523</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>9.923912156272017</v>
+        <v>11.82885398850287</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>4.032353857565154</v>
+        <v>3.841765446673359</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.366797071909449</v>
+        <v>1.274528879147728</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.374596153131885</v>
+        <v>2.433939139383019</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>9.636235390769956</v>
+        <v>8.756787222800245</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2.152220650009274</v>
+        <v>1.382028570202165</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3.361402361603003</v>
+        <v>3.240681698506215</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.3254369461135567</v>
+        <v>0.3404963486482521</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>1.177162319228703</v>
+        <v>1.066625831083188</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1587523585204304</v>
+        <v>0.1386093118017179</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.9377184674167792</v>
+        <v>0.8529994651218349</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>12.11912419693569</v>
+        <v>12.3244334674172</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>21.77970227853633</v>
+        <v>21.28961462010447</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>12.62093953996425</v>
+        <v>12.50485461511598</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>9.347535189242734</v>
+        <v>9.166574033386727</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>6.469204582146144</v>
+        <v>6.173758103575735</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>7.147297235497025</v>
+        <v>7.891290958285195</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>3.783713602921527</v>
+        <v>3.540066978044895</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>12.53465834279212</v>
+        <v>13.25449480948558</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>10.13776613873518</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>4.778311340522086</v>
+        <v>4.778311340522082</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>6.950231787099314</v>
@@ -1149,7 +1149,7 @@
         <v>3.989031587864621</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.4718679381952546</v>
+        <v>0.4718679381952542</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>2.017495252841483</v>
+        <v>2.498082267132475</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>2.925683880473838</v>
+        <v>3.560458361802896</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>5.751374376532217</v>
+        <v>6.232153979714413</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.5700268471004587</v>
+        <v>0.04597402879383842</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.6821875557988653</v>
+        <v>0.8178794440494216</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3074927809395153</v>
+        <v>0.3890085136154431</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>1.113383578583416</v>
+        <v>1.361319902853941</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.03660488135945063</v>
+        <v>-0.007534420193808387</v>
       </c>
     </row>
     <row r="21">
@@ -1192,26 +1192,26 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>7.915824824849446</v>
+        <v>8.378660988003165</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>13.00953909295998</v>
+        <v>13.12902879193158</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>14.96526238320515</v>
+        <v>15.0398511300868</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>9.066750832238309</v>
+        <v>9.112550047853317</v>
       </c>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="n">
-        <v>3.790614023823906</v>
+        <v>3.897647524545714</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>11.35093129074795</v>
+        <v>11.94926014848988</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.148500864417494</v>
+        <v>1.082076632507352</v>
       </c>
     </row>
     <row r="22">
@@ -1258,28 +1258,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>2.885093986369376</v>
+        <v>2.729937431573101</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.9321409218204534</v>
+        <v>0.9601740021302916</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3.834761088451792</v>
+        <v>4.005073929446216</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>4.494008544696392</v>
+        <v>4.307169288120968</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.6751028437753742</v>
+        <v>0.6513311990633257</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1238893492741856</v>
+        <v>0.1151522535076502</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>1.151050888973372</v>
+        <v>1.15212439904129</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.491998163673824</v>
+        <v>0.468361804765995</v>
       </c>
     </row>
     <row r="24">
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>7.573051395912122</v>
+        <v>7.483834527873934</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>6.551739284760593</v>
+        <v>6.82062024506993</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>8.880634666212485</v>
+        <v>9.114625421692194</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>10.97546670545209</v>
+        <v>10.6741360167241</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>3.552917325232514</v>
+        <v>3.480172240562542</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>1.659542501986774</v>
+        <v>1.681646193574641</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>6.773407815668814</v>
+        <v>6.54674071201257</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>1.901133707955063</v>
+        <v>1.83845649657514</v>
       </c>
     </row>
     <row r="25">
@@ -1347,7 +1347,7 @@
         <v>1.752077275829047</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>1.29132022553637</v>
+        <v>1.291320225536371</v>
       </c>
     </row>
     <row r="26">
@@ -1358,28 +1358,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-0.9981038062605523</v>
+        <v>-0.7540857353930657</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>2.884358102667802</v>
+        <v>3.193464660859139</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>4.367461265553866</v>
+        <v>4.910990789152821</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>4.194024727117527</v>
+        <v>4.24003704270979</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1464140063612383</v>
+        <v>-0.1111390882027821</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6348459730284941</v>
+        <v>0.7309449815897475</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8537673473736069</v>
+        <v>0.9430145896492921</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.6250608150272605</v>
+        <v>0.6526069829276204</v>
       </c>
     </row>
     <row r="27">
@@ -1390,28 +1390,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>4.171681268604066</v>
+        <v>4.402109347319881</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>7.854996208545481</v>
+        <v>7.963508494887408</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>10.13830324552326</v>
+        <v>10.37736586663731</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>9.034656555301854</v>
+        <v>9.261632449946978</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.9104147983178984</v>
+        <v>1.000532952472779</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>3.517414455259723</v>
+        <v>4.002074452604137</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>3.06395719734768</v>
+        <v>3.131398881683265</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>2.247566277615069</v>
+        <v>2.344884308031947</v>
       </c>
     </row>
     <row r="28">
@@ -1435,7 +1435,7 @@
         <v>6.932724168556037</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>6.132113440257629</v>
+        <v>6.132113440257628</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>1.459322715576148</v>
@@ -1458,28 +1458,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>3.423897257326848</v>
+        <v>3.444662043215715</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>5.967217358922662</v>
+        <v>5.996568367869386</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>5.693724106743689</v>
+        <v>5.71028714408346</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>4.910026031424239</v>
+        <v>4.874047647275241</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.9453529759130482</v>
+        <v>0.926760299679533</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>1.254886956591919</v>
+        <v>1.260581245896257</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>1.497282484353562</v>
+        <v>1.493516220809978</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>0.7297207013674261</v>
+        <v>0.7069497115613291</v>
       </c>
     </row>
     <row r="30">
@@ -1490,28 +1490,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>5.613731949516527</v>
+        <v>5.650467788534503</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>8.619900124491782</v>
+        <v>8.625514379020448</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>8.155946505489197</v>
+        <v>8.311237607759782</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>7.315831946113138</v>
+        <v>7.433815002297614</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>2.071105244030165</v>
+        <v>2.066848058208211</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>2.338577183958378</v>
+        <v>2.355582882126471</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>2.907520221978318</v>
+        <v>2.942916576435255</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>1.346211538444257</v>
+        <v>1.372439730399338</v>
       </c>
     </row>
     <row r="31">
